--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H2">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I2">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J2">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.3792757903497</v>
+        <v>10.4223555</v>
       </c>
       <c r="N2">
-        <v>10.3792757903497</v>
+        <v>20.844711</v>
       </c>
       <c r="O2">
-        <v>0.5267070808686305</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P2">
-        <v>0.5267070808686305</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q2">
-        <v>89.20830203960536</v>
+        <v>89.84839610835898</v>
       </c>
       <c r="R2">
-        <v>89.20830203960536</v>
+        <v>359.3935844334359</v>
       </c>
       <c r="S2">
-        <v>0.2021278330424756</v>
+        <v>0.1919978232730615</v>
       </c>
       <c r="T2">
-        <v>0.2021278330424756</v>
+        <v>0.1263243122932339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H3">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I3">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J3">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83240741284493</v>
+        <v>2.082668</v>
       </c>
       <c r="N3">
-        <v>1.83240741284493</v>
+        <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.09298740864742691</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P3">
-        <v>0.09298740864742691</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q3">
-        <v>15.74926394158131</v>
+        <v>17.954135168984</v>
       </c>
       <c r="R3">
-        <v>15.74926394158131</v>
+        <v>107.724811013904</v>
       </c>
       <c r="S3">
-        <v>0.035684622616318</v>
+        <v>0.03836634843250746</v>
       </c>
       <c r="T3">
-        <v>0.035684622616318</v>
+        <v>0.03786451193808227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H4">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I4">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J4">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.8392634676081</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>5.8392634676081</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.296319461739929</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P4">
-        <v>0.296319461739929</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q4">
-        <v>50.18758433912527</v>
+        <v>0.229673701796</v>
       </c>
       <c r="R4">
-        <v>50.18758433912527</v>
+        <v>1.378042210776</v>
       </c>
       <c r="S4">
-        <v>0.1137148385987681</v>
+        <v>0.0004907917416212588</v>
       </c>
       <c r="T4">
-        <v>0.1137148385987681</v>
+        <v>0.0004843721260682874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H5">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I5">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J5">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65502685291085</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N5">
-        <v>1.65502685291085</v>
+        <v>18.334645</v>
       </c>
       <c r="O5">
-        <v>0.08398604874401359</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P5">
-        <v>0.08398604874401359</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q5">
-        <v>14.2247049177941</v>
+        <v>52.68605695600333</v>
       </c>
       <c r="R5">
-        <v>14.2247049177941</v>
+        <v>316.11634173602</v>
       </c>
       <c r="S5">
-        <v>0.03223028255179519</v>
+        <v>0.1125852957930774</v>
       </c>
       <c r="T5">
-        <v>0.03223028255179519</v>
+        <v>0.1111126664584402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.84597276610613</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H6">
-        <v>4.84597276610613</v>
+        <v>17.241476</v>
       </c>
       <c r="I6">
-        <v>0.2163713281444803</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J6">
-        <v>0.2163713281444803</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3792757903497</v>
+        <v>1.6551325</v>
       </c>
       <c r="N6">
-        <v>10.3792757903497</v>
+        <v>3.310265</v>
       </c>
       <c r="O6">
-        <v>0.5267070808686305</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P6">
-        <v>0.5267070808686305</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q6">
-        <v>50.29768781193933</v>
+        <v>14.268463637785</v>
       </c>
       <c r="R6">
-        <v>50.29768781193933</v>
+        <v>57.07385455114</v>
       </c>
       <c r="S6">
-        <v>0.1139643106306478</v>
+        <v>0.03049040471019249</v>
       </c>
       <c r="T6">
-        <v>0.1139643106306478</v>
+        <v>0.0200610576770943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H7">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J7">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.83240741284493</v>
+        <v>10.4223555</v>
       </c>
       <c r="N7">
-        <v>1.83240741284493</v>
+        <v>20.844711</v>
       </c>
       <c r="O7">
-        <v>0.09298740864742691</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P7">
-        <v>0.09298740864742691</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q7">
-        <v>8.879796419057524</v>
+        <v>52.92468648781499</v>
       </c>
       <c r="R7">
-        <v>8.879796419057524</v>
+        <v>317.5481189268899</v>
       </c>
       <c r="S7">
-        <v>0.0201198091097573</v>
+        <v>0.1130952253261684</v>
       </c>
       <c r="T7">
-        <v>0.0201198091097573</v>
+        <v>0.1116159260513429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H8">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J8">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.8392634676081</v>
+        <v>2.082668</v>
       </c>
       <c r="N8">
-        <v>5.8392634676081</v>
+        <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.296319461739929</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P8">
-        <v>0.296319461739929</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q8">
-        <v>28.2969117381473</v>
+        <v>10.57578116177333</v>
       </c>
       <c r="R8">
-        <v>28.2969117381473</v>
+        <v>95.18203045595999</v>
       </c>
       <c r="S8">
-        <v>0.06411503549172595</v>
+        <v>0.02259947923860402</v>
       </c>
       <c r="T8">
-        <v>0.06411503549172595</v>
+        <v>0.03345581296053922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H9">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J9">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.65502685291085</v>
+        <v>0.026642</v>
       </c>
       <c r="N9">
-        <v>1.65502685291085</v>
+        <v>0.079926</v>
       </c>
       <c r="O9">
-        <v>0.08398604874401359</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P9">
-        <v>0.08398604874401359</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q9">
-        <v>8.020215056380316</v>
+        <v>0.1352879871933333</v>
       </c>
       <c r="R9">
-        <v>8.020215056380316</v>
+        <v>1.21759188474</v>
       </c>
       <c r="S9">
-        <v>0.01817217291234928</v>
+        <v>0.0002890980827836643</v>
       </c>
       <c r="T9">
-        <v>0.01817217291234928</v>
+        <v>0.0004279749671549599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H10">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I10">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J10">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.3792757903497</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N10">
-        <v>10.3792757903497</v>
+        <v>18.334645</v>
       </c>
       <c r="O10">
-        <v>0.5267070808686305</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P10">
-        <v>0.5267070808686305</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q10">
-        <v>4.287518859426891</v>
+        <v>31.03442206483889</v>
       </c>
       <c r="R10">
-        <v>4.287518859426891</v>
+        <v>279.30979858355</v>
       </c>
       <c r="S10">
-        <v>0.009714644000285448</v>
+        <v>0.06631772787352172</v>
       </c>
       <c r="T10">
-        <v>0.009714644000285448</v>
+        <v>0.09817542591488189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H11">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I11">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J11">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.83240741284493</v>
+        <v>1.6551325</v>
       </c>
       <c r="N11">
-        <v>1.83240741284493</v>
+        <v>3.310265</v>
       </c>
       <c r="O11">
-        <v>0.09298740864742691</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P11">
-        <v>0.09298740864742691</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q11">
-        <v>0.7569392604473393</v>
+        <v>8.404757317891667</v>
       </c>
       <c r="R11">
-        <v>0.7569392604473393</v>
+        <v>50.42854390735</v>
       </c>
       <c r="S11">
-        <v>0.001715070110751226</v>
+        <v>0.01796019940330805</v>
       </c>
       <c r="T11">
-        <v>0.001715070110751226</v>
+        <v>0.01772527781509413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H12">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I12">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J12">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.8392634676081</v>
+        <v>10.4223555</v>
       </c>
       <c r="N12">
-        <v>5.8392634676081</v>
+        <v>20.844711</v>
       </c>
       <c r="O12">
-        <v>0.296319461739929</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P12">
-        <v>0.296319461739929</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q12">
-        <v>2.412109741395423</v>
+        <v>2.757505128767999</v>
       </c>
       <c r="R12">
-        <v>2.412109741395423</v>
+        <v>16.545030772608</v>
       </c>
       <c r="S12">
-        <v>0.005465349120448971</v>
+        <v>0.005892536821127556</v>
       </c>
       <c r="T12">
-        <v>0.005465349120448971</v>
+        <v>0.005815461724267921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H13">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I13">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J13">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.65502685291085</v>
+        <v>2.082668</v>
       </c>
       <c r="N13">
-        <v>1.65502685291085</v>
+        <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.08398604874401359</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P13">
-        <v>0.08398604874401359</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q13">
-        <v>0.6836660849989927</v>
+        <v>0.551023968768</v>
       </c>
       <c r="R13">
-        <v>0.6836660849989927</v>
+        <v>4.959215718912</v>
       </c>
       <c r="S13">
-        <v>0.001549048027213081</v>
+        <v>0.001177487936981624</v>
       </c>
       <c r="T13">
-        <v>0.001549048027213081</v>
+        <v>0.001743129377762679</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H14">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I14">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J14">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>10.3792757903497</v>
+        <v>0.026642</v>
       </c>
       <c r="N14">
-        <v>10.3792757903497</v>
+        <v>0.079926</v>
       </c>
       <c r="O14">
-        <v>0.5267070808686305</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P14">
-        <v>0.5267070808686305</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q14">
-        <v>65.6567184536198</v>
+        <v>0.007048833791999999</v>
       </c>
       <c r="R14">
-        <v>65.6567184536198</v>
+        <v>0.06343950412799999</v>
       </c>
       <c r="S14">
-        <v>0.1487647441133698</v>
+        <v>1.506271456471432E-05</v>
       </c>
       <c r="T14">
-        <v>0.1487647441133698</v>
+        <v>2.22985386448312E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H15">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I15">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J15">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.83240741284493</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N15">
-        <v>1.83240741284493</v>
+        <v>18.334645</v>
       </c>
       <c r="O15">
-        <v>0.09298740864742691</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P15">
-        <v>0.09298740864742691</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q15">
-        <v>11.59135377338614</v>
+        <v>1.61696901184</v>
       </c>
       <c r="R15">
-        <v>11.59135377338614</v>
+        <v>14.55272110656</v>
       </c>
       <c r="S15">
-        <v>0.02626364549796143</v>
+        <v>0.00345531522008316</v>
       </c>
       <c r="T15">
-        <v>0.02626364549796143</v>
+        <v>0.005115178916394679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H16">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I16">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J16">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.8392634676081</v>
+        <v>1.6551325</v>
       </c>
       <c r="N16">
-        <v>5.8392634676081</v>
+        <v>3.310265</v>
       </c>
       <c r="O16">
-        <v>0.296319461739929</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P16">
-        <v>0.296319461739929</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q16">
-        <v>36.9377291068528</v>
+        <v>0.43790833632</v>
       </c>
       <c r="R16">
-        <v>36.9377291068528</v>
+        <v>2.62745001792</v>
       </c>
       <c r="S16">
-        <v>0.08369336677390665</v>
+        <v>0.0009357701529270333</v>
       </c>
       <c r="T16">
-        <v>0.08369336677390665</v>
+        <v>0.0009235301657424637</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,309 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.32575140884735</v>
+        <v>0.413146</v>
       </c>
       <c r="H17">
-        <v>6.32575140884735</v>
+        <v>1.239438</v>
       </c>
       <c r="I17">
-        <v>0.282443030513338</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J17">
-        <v>0.282443030513338</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.65502685291085</v>
+        <v>10.4223555</v>
       </c>
       <c r="N17">
-        <v>1.65502685291085</v>
+        <v>20.844711</v>
       </c>
       <c r="O17">
-        <v>0.08398604874401359</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P17">
-        <v>0.08398604874401359</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q17">
-        <v>10.46928844648101</v>
+        <v>4.305954485402999</v>
       </c>
       <c r="R17">
-        <v>10.46928844648101</v>
+        <v>25.835726912418</v>
       </c>
       <c r="S17">
-        <v>0.02372127412810012</v>
+        <v>0.009201431790871302</v>
       </c>
       <c r="T17">
-        <v>0.02372127412810012</v>
+        <v>0.009081075946171968</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H18">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I18">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J18">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.3792757903497</v>
+        <v>2.082668</v>
       </c>
       <c r="N18">
-        <v>10.3792757903497</v>
+        <v>6.248004</v>
       </c>
       <c r="O18">
-        <v>0.5267070808686305</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P18">
-        <v>0.5267070808686305</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q18">
-        <v>23.00981383655931</v>
+        <v>0.860445953528</v>
       </c>
       <c r="R18">
-        <v>23.00981383655931</v>
+        <v>7.744013581752</v>
       </c>
       <c r="S18">
-        <v>0.05213554908185181</v>
+        <v>0.001838694481782967</v>
       </c>
       <c r="T18">
-        <v>0.05213554908185181</v>
+        <v>0.002721966202169282</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H19">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I19">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J19">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.83240741284493</v>
+        <v>0.026642</v>
       </c>
       <c r="N19">
-        <v>1.83240741284493</v>
+        <v>0.079926</v>
       </c>
       <c r="O19">
-        <v>0.09298740864742691</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P19">
-        <v>0.09298740864742691</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q19">
-        <v>4.062263523385242</v>
+        <v>0.011007035732</v>
       </c>
       <c r="R19">
-        <v>4.062263523385242</v>
+        <v>0.09906332158800001</v>
       </c>
       <c r="S19">
-        <v>0.009204261312638963</v>
+        <v>2.352103090058608E-05</v>
       </c>
       <c r="T19">
-        <v>0.009204261312638963</v>
+        <v>3.482005944211656E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H20">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I20">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J20">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.8392634676081</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N20">
-        <v>5.8392634676081</v>
+        <v>18.334645</v>
       </c>
       <c r="O20">
-        <v>0.296319461739929</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P20">
-        <v>0.296319461739929</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q20">
-        <v>12.94506168312898</v>
+        <v>2.524961747723334</v>
       </c>
       <c r="R20">
-        <v>12.94506168312898</v>
+        <v>22.72465572951</v>
       </c>
       <c r="S20">
-        <v>0.02933087175507929</v>
+        <v>0.005395612836827517</v>
       </c>
       <c r="T20">
-        <v>0.02933087175507929</v>
+        <v>0.007987556348999138</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.413146</v>
+      </c>
+      <c r="H21">
+        <v>1.239438</v>
+      </c>
+      <c r="I21">
+        <v>0.01792050264008451</v>
+      </c>
+      <c r="J21">
+        <v>0.02126754782722214</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.6551325</v>
+      </c>
+      <c r="N21">
+        <v>3.310265</v>
+      </c>
+      <c r="O21">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P21">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q21">
+        <v>0.6838113718450001</v>
+      </c>
+      <c r="R21">
+        <v>4.10286823107</v>
+      </c>
+      <c r="S21">
+        <v>0.001461242499702135</v>
+      </c>
+      <c r="T21">
+        <v>0.001442129270439631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H22">
+        <v>19.241697</v>
+      </c>
+      <c r="I22">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J22">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.4223555</v>
+      </c>
+      <c r="N22">
+        <v>20.844711</v>
+      </c>
+      <c r="O22">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P22">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q22">
+        <v>66.84793551909449</v>
+      </c>
+      <c r="R22">
+        <v>401.087613114567</v>
+      </c>
+      <c r="S22">
+        <v>0.142847937925183</v>
+      </c>
+      <c r="T22">
+        <v>0.1409794695581621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H23">
+        <v>19.241697</v>
+      </c>
+      <c r="I23">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J23">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.082668</v>
+      </c>
+      <c r="N23">
+        <v>6.248004</v>
+      </c>
+      <c r="O23">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P23">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q23">
+        <v>13.358022202532</v>
+      </c>
+      <c r="R23">
+        <v>120.222199822788</v>
+      </c>
+      <c r="S23">
+        <v>0.02854487444635381</v>
+      </c>
+      <c r="T23">
+        <v>0.04225725603570495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H24">
+        <v>19.241697</v>
+      </c>
+      <c r="I24">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J24">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.026642</v>
+      </c>
+      <c r="N24">
+        <v>0.079926</v>
+      </c>
+      <c r="O24">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P24">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q24">
+        <v>0.170879097158</v>
+      </c>
+      <c r="R24">
+        <v>1.537911874422</v>
+      </c>
+      <c r="S24">
+        <v>0.0003651530368737399</v>
+      </c>
+      <c r="T24">
+        <v>0.0005405651862434393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H25">
+        <v>19.241697</v>
+      </c>
+      <c r="I25">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J25">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N25">
+        <v>18.334645</v>
+      </c>
+      <c r="O25">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P25">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q25">
+        <v>39.19885374361834</v>
+      </c>
+      <c r="R25">
+        <v>352.7896836925651</v>
+      </c>
+      <c r="S25">
+        <v>0.08376437331721757</v>
+      </c>
+      <c r="T25">
+        <v>0.1240030877202956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H26">
+        <v>19.241697</v>
+      </c>
+      <c r="I26">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J26">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6551325</v>
+      </c>
+      <c r="N26">
+        <v>3.310265</v>
+      </c>
+      <c r="O26">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P26">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q26">
+        <v>10.6158526866175</v>
+      </c>
+      <c r="R26">
+        <v>63.69511611970501</v>
+      </c>
+      <c r="S26">
+        <v>0.02268510843042659</v>
+      </c>
+      <c r="T26">
+        <v>0.02238838445862596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.26402</v>
+      </c>
+      <c r="H27">
+        <v>4.52804</v>
+      </c>
+      <c r="I27">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J27">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.4223555</v>
+      </c>
+      <c r="N27">
+        <v>20.844711</v>
+      </c>
+      <c r="O27">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P27">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q27">
+        <v>23.59642129910999</v>
+      </c>
+      <c r="R27">
+        <v>94.38568519643998</v>
+      </c>
+      <c r="S27">
+        <v>0.05042339899979292</v>
+      </c>
+      <c r="T27">
+        <v>0.03317590321363757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.26402</v>
+      </c>
+      <c r="H28">
+        <v>4.52804</v>
+      </c>
+      <c r="I28">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J28">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.082668</v>
+      </c>
+      <c r="N28">
+        <v>6.248004</v>
+      </c>
+      <c r="O28">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P28">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q28">
+        <v>4.71520200536</v>
+      </c>
+      <c r="R28">
+        <v>28.29121203216</v>
+      </c>
+      <c r="S28">
+        <v>0.01007595639470374</v>
+      </c>
+      <c r="T28">
+        <v>0.009944161662036015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.26402</v>
+      </c>
+      <c r="H29">
+        <v>4.52804</v>
+      </c>
+      <c r="I29">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J29">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.026642</v>
+      </c>
+      <c r="N29">
+        <v>0.079926</v>
+      </c>
+      <c r="O29">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P29">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q29">
+        <v>0.06031802083999999</v>
+      </c>
+      <c r="R29">
+        <v>0.36190812504</v>
+      </c>
+      <c r="S29">
+        <v>0.0001288941061502347</v>
+      </c>
+      <c r="T29">
+        <v>0.0001272081555965538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.21689974342459</v>
-      </c>
-      <c r="H21">
-        <v>2.21689974342459</v>
-      </c>
-      <c r="I21">
-        <v>0.09898395327412597</v>
-      </c>
-      <c r="J21">
-        <v>0.09898395327412597</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="N21">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="O21">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="P21">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="Q21">
-        <v>3.66902860557887</v>
-      </c>
-      <c r="R21">
-        <v>3.66902860557887</v>
-      </c>
-      <c r="S21">
-        <v>0.008313271124555908</v>
-      </c>
-      <c r="T21">
-        <v>0.008313271124555908</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.26402</v>
+      </c>
+      <c r="H30">
+        <v>4.52804</v>
+      </c>
+      <c r="I30">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J30">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N30">
+        <v>18.334645</v>
+      </c>
+      <c r="O30">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P30">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q30">
+        <v>13.83666765763333</v>
+      </c>
+      <c r="R30">
+        <v>83.02000594580001</v>
+      </c>
+      <c r="S30">
+        <v>0.02956769610460765</v>
+      </c>
+      <c r="T30">
+        <v>0.02918094705061653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.26402</v>
+      </c>
+      <c r="H31">
+        <v>4.52804</v>
+      </c>
+      <c r="I31">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J31">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.6551325</v>
+      </c>
+      <c r="N31">
+        <v>3.310265</v>
+      </c>
+      <c r="O31">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P31">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q31">
+        <v>3.74725308265</v>
+      </c>
+      <c r="R31">
+        <v>14.9890123306</v>
+      </c>
+      <c r="S31">
+        <v>0.008007537878076098</v>
+      </c>
+      <c r="T31">
+        <v>0.005268532207114408</v>
       </c>
     </row>
   </sheetData>
